--- a/ConvertedEqual/Arkansas_Converted.xlsx
+++ b/ConvertedEqual/Arkansas_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -804,6 +804,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1530,13 +1566,13 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -2952,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>0.0923076923076923</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -3035,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0.0923076923076923</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3118,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3201,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -3284,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3367,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -3450,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -3533,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="33" spans="1:27">
@@ -3616,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="34" spans="1:27">
@@ -3699,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="35" spans="1:27">
@@ -3782,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.4999999999923077</v>
+        <v>0.5416666666583333</v>
       </c>
     </row>
     <row r="36" spans="1:27">
@@ -3865,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.4999999999923077</v>
+        <v>0.5416666666583333</v>
       </c>
     </row>
     <row r="37" spans="1:27">
@@ -3948,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="38" spans="1:27">
@@ -4031,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="39" spans="1:27">
@@ -4114,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="40" spans="1:27">
@@ -4197,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="41" spans="1:27">
@@ -4280,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="42" spans="1:27">
@@ -4363,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="43" spans="1:27">
@@ -4446,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="44" spans="1:27">
@@ -4529,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="45" spans="1:27">
@@ -4612,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="46" spans="1:27">
@@ -4695,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="47" spans="1:27">
@@ -4778,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="48" spans="1:27">
@@ -4861,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="49" spans="1:27">
@@ -4944,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="50" spans="1:27">
@@ -5027,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="51" spans="1:27">
@@ -5110,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="52" spans="1:27">
@@ -5193,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="53" spans="1:27">
@@ -5276,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="54" spans="1:27">
@@ -5359,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="55" spans="1:27">
@@ -5442,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="56" spans="1:27">
@@ -5525,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="57" spans="1:27">
@@ -5608,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AA57">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="58" spans="1:27">
@@ -5691,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="59" spans="1:27">
@@ -5774,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="60" spans="1:27">
@@ -5857,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="61" spans="1:27">
@@ -5940,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="62" spans="1:27">
@@ -6023,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="63" spans="1:27">
@@ -6106,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="64" spans="1:27">
@@ -6189,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="65" spans="1:27">
@@ -6272,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="66" spans="1:27">
@@ -6355,7 +6391,7 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="67" spans="1:27">
@@ -6438,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="68" spans="1:27">
@@ -6521,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -6604,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="70" spans="1:27">
@@ -6687,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.5384615384538461</v>
+        <v>0.583333333325</v>
       </c>
     </row>
     <row r="71" spans="1:27">
@@ -6770,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.4999999999923077</v>
+        <v>0.5416666666583333</v>
       </c>
     </row>
     <row r="72" spans="1:27">
@@ -6853,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="AA72">
-        <v>0.4999999999923077</v>
+        <v>0.5416666666583333</v>
       </c>
     </row>
     <row r="73" spans="1:27">
@@ -6936,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="AA73">
-        <v>0.4999999999923077</v>
+        <v>0.5416666666583333</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -7019,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="AA74">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="75" spans="1:27">
@@ -7102,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="AA75">
-        <v>0.4230769230692308</v>
+        <v>0.458333333325</v>
       </c>
     </row>
     <row r="76" spans="1:27">
@@ -7185,7 +7221,7 @@
         <v>0</v>
       </c>
       <c r="AA76">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:27">
@@ -7268,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="AA77">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:27">
@@ -7351,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="AA78">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:27">
@@ -7434,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:27">
@@ -7517,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.3461538461538462</v>
+        <v>0.3750000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:27">
@@ -7600,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="82" spans="1:27">
@@ -7683,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="AA82">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="83" spans="1:27">
@@ -7766,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="84" spans="1:27">
@@ -7849,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="85" spans="1:27">
@@ -7932,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="AA85">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="86" spans="1:27">
@@ -8015,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="87" spans="1:27">
@@ -8098,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.3076923076923078</v>
+        <v>0.3333333333333334</v>
       </c>
     </row>
     <row r="88" spans="1:27">
@@ -8181,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>0.2461538461538462</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="89" spans="1:27">
@@ -8264,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.2461538461538462</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="90" spans="1:27">
@@ -8347,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="AA90">
-        <v>0.2461538461538462</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="91" spans="1:27">
@@ -8430,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0.2461538461538462</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="92" spans="1:27">
@@ -8513,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.2076923076923077</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="93" spans="1:27">
@@ -8596,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0.2076923076923077</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="94" spans="1:27">
@@ -8679,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>0.2076923076923077</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="95" spans="1:27">
@@ -8762,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="AA95">
-        <v>0.2076923076923077</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="96" spans="1:27">
@@ -8845,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="AA96">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="97" spans="1:27">
@@ -8928,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:27">
@@ -9011,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="99" spans="1:27">
@@ -9094,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AA99">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="100" spans="1:27">
@@ -9177,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="AA100">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="101" spans="1:27">
@@ -9260,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="102" spans="1:27">
@@ -9343,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="AA102">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:27">
@@ -9426,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="AA103">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:27">
@@ -9509,7 +9545,7 @@
         <v>0</v>
       </c>
       <c r="AA104">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:27">
@@ -9592,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="AA105">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:27">
@@ -9675,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="AA106">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="107" spans="1:27">
@@ -9758,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="108" spans="1:27">
@@ -9841,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="109" spans="1:27">
@@ -9924,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="110" spans="1:27">
@@ -10007,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="111" spans="1:27">
@@ -10090,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="AA111">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:27">
@@ -10173,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="AA112">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="113" spans="1:27">
@@ -10256,7 +10292,7 @@
         <v>0</v>
       </c>
       <c r="AA113">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:27">
@@ -10339,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="AA114">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:27">
@@ -10422,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.1692307692307692</v>
+        <v>0.1833333333333333</v>
       </c>
     </row>
     <row r="116" spans="1:27">
@@ -10505,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="AA116">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="117" spans="1:27">
@@ -10588,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="118" spans="1:27">
@@ -10671,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="AA118">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="119" spans="1:27">
@@ -10754,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="AA119">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:27">
@@ -10837,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="AA120">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:27">
@@ -10920,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:27">
@@ -11003,7 +11039,7 @@
         <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:27">
@@ -11086,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="AA123">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:27">
@@ -11169,7 +11205,7 @@
         <v>0</v>
       </c>
       <c r="AA124">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:27">
@@ -11252,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="AA125">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:27">
@@ -11335,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="AA126">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:27">
@@ -11418,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="AA127">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="128" spans="1:27">
@@ -11501,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="AA128">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="129" spans="1:27">
@@ -11584,7 +11620,7 @@
         <v>0</v>
       </c>
       <c r="AA129">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:27">
@@ -11667,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="131" spans="1:27">
@@ -11750,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="132" spans="1:27">
@@ -11833,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="AA132">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="133" spans="1:27">
@@ -11916,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="AA133">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:27">
@@ -11999,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="AA134">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:27">
@@ -12082,7 +12118,7 @@
         <v>0</v>
       </c>
       <c r="AA135">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:27">
@@ -12165,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="AA136">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:27">
@@ -12248,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:27">
@@ -12331,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="AA138">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:27">
@@ -12414,7 +12450,7 @@
         <v>0</v>
       </c>
       <c r="AA139">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:27">
@@ -12497,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="AA140">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:27">
@@ -12580,7 +12616,7 @@
         <v>0</v>
       </c>
       <c r="AA141">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -12663,7 +12699,7 @@
         <v>0</v>
       </c>
       <c r="AA142">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:27">
@@ -12746,7 +12782,7 @@
         <v>0</v>
       </c>
       <c r="AA143">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:27">
@@ -12829,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="AA144">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:27">
@@ -12912,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="AA145">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:27">
@@ -12995,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="AA146">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:27">
@@ -13078,7 +13114,7 @@
         <v>0</v>
       </c>
       <c r="AA147">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:27">
@@ -13161,7 +13197,7 @@
         <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:27">
@@ -13244,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:27">
@@ -13327,7 +13363,7 @@
         <v>1</v>
       </c>
       <c r="AA150">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="151" spans="1:27">
@@ -13410,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="AA151">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="152" spans="1:27">
@@ -13493,7 +13529,7 @@
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="153" spans="1:27">
@@ -13576,7 +13612,7 @@
         <v>1</v>
       </c>
       <c r="AA153">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="154" spans="1:27">
@@ -13659,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="AA154">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="155" spans="1:27">
@@ -13742,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="156" spans="1:27">
@@ -13825,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="AA156">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="157" spans="1:27">
@@ -13908,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="158" spans="1:27">
@@ -13991,7 +14027,7 @@
         <v>1</v>
       </c>
       <c r="AA158">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="159" spans="1:27">
@@ -14074,7 +14110,7 @@
         <v>1</v>
       </c>
       <c r="AA159">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160" spans="1:27">
@@ -14157,7 +14193,7 @@
         <v>1</v>
       </c>
       <c r="AA160">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="161" spans="1:27">
@@ -14240,7 +14276,7 @@
         <v>1</v>
       </c>
       <c r="AA161">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162" spans="1:27">
@@ -14323,7 +14359,7 @@
         <v>1</v>
       </c>
       <c r="AA162">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="163" spans="1:27">
@@ -14406,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="164" spans="1:27">
@@ -14489,7 +14525,7 @@
         <v>1</v>
       </c>
       <c r="AA164">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="165" spans="1:27">
@@ -14572,7 +14608,7 @@
         <v>1</v>
       </c>
       <c r="AA165">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="166" spans="1:27">
@@ -14655,7 +14691,7 @@
         <v>1</v>
       </c>
       <c r="AA166">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167" spans="1:27">
@@ -14738,7 +14774,7 @@
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168" spans="1:27">
@@ -14821,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169" spans="1:27">
@@ -14904,7 +14940,7 @@
         <v>1</v>
       </c>
       <c r="AA169">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170" spans="1:27">
@@ -14987,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="AA170">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171" spans="1:27">
@@ -15070,7 +15106,7 @@
         <v>1</v>
       </c>
       <c r="AA171">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="172" spans="1:27">
@@ -15153,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="AA172">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173" spans="1:27">
@@ -15236,7 +15272,7 @@
         <v>1</v>
       </c>
       <c r="AA173">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="174" spans="1:27">
@@ -15319,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="AA174">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="175" spans="1:27">
@@ -15402,7 +15438,7 @@
         <v>1</v>
       </c>
       <c r="AA175">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="176" spans="1:27">
@@ -15485,7 +15521,7 @@
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="177" spans="1:27">
@@ -15568,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="AA177">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="178" spans="1:27">
@@ -15651,7 +15687,7 @@
         <v>1</v>
       </c>
       <c r="AA178">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="179" spans="1:27">
@@ -15734,7 +15770,7 @@
         <v>1</v>
       </c>
       <c r="AA179">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="180" spans="1:27">
@@ -15817,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="AA180">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="181" spans="1:27">
@@ -15900,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="AA181">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="182" spans="1:27">
@@ -15983,7 +16019,7 @@
         <v>1</v>
       </c>
       <c r="AA182">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183" spans="1:27">
@@ -16066,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="AA183">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="184" spans="1:27">
@@ -16149,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="AA184">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" spans="1:27">
@@ -16232,7 +16268,7 @@
         <v>1</v>
       </c>
       <c r="AA185">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186" spans="1:27">
@@ -16315,7 +16351,7 @@
         <v>1</v>
       </c>
       <c r="AA186">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="187" spans="1:27">
@@ -16398,7 +16434,7 @@
         <v>1</v>
       </c>
       <c r="AA187">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="188" spans="1:27">
@@ -16481,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="189" spans="1:27">
@@ -16564,7 +16600,7 @@
         <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="190" spans="1:27">
@@ -16647,7 +16683,7 @@
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="191" spans="1:27">
@@ -16730,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="AA191">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="192" spans="1:27">
@@ -16813,7 +16849,7 @@
         <v>1</v>
       </c>
       <c r="AA192">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="193" spans="1:27">
@@ -16896,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="AA193">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="194" spans="1:27">
@@ -16979,7 +17015,7 @@
         <v>1</v>
       </c>
       <c r="AA194">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="195" spans="1:27">
@@ -17062,7 +17098,7 @@
         <v>1</v>
       </c>
       <c r="AA195">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="196" spans="1:27">
@@ -17145,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="AA196">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:27">
@@ -17228,7 +17264,7 @@
         <v>1</v>
       </c>
       <c r="AA197">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="198" spans="1:27">
@@ -17311,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="AA198">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="199" spans="1:27">
@@ -17394,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="200" spans="1:27">
@@ -17477,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="AA200">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="201" spans="1:27">
@@ -17560,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="AA201">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="202" spans="1:27">
@@ -17643,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="AA202">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="203" spans="1:27">
@@ -17726,7 +17762,7 @@
         <v>1</v>
       </c>
       <c r="AA203">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="204" spans="1:27">
@@ -17809,7 +17845,7 @@
         <v>1</v>
       </c>
       <c r="AA204">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="205" spans="1:27">
@@ -17892,7 +17928,7 @@
         <v>1</v>
       </c>
       <c r="AA205">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="206" spans="1:27">
@@ -17975,7 +18011,7 @@
         <v>1</v>
       </c>
       <c r="AA206">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="207" spans="1:27">
@@ -18058,7 +18094,7 @@
         <v>1</v>
       </c>
       <c r="AA207">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="208" spans="1:27">
@@ -18141,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="AA208">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="209" spans="1:27">
@@ -18224,7 +18260,7 @@
         <v>1</v>
       </c>
       <c r="AA209">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="210" spans="1:27">
@@ -18307,7 +18343,7 @@
         <v>1</v>
       </c>
       <c r="AA210">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="211" spans="1:27">
@@ -18390,7 +18426,7 @@
         <v>1</v>
       </c>
       <c r="AA211">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="212" spans="1:27">
@@ -18473,7 +18509,7 @@
         <v>1</v>
       </c>
       <c r="AA212">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="213" spans="1:27">
@@ -18556,7 +18592,7 @@
         <v>1</v>
       </c>
       <c r="AA213">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="214" spans="1:27">
@@ -18639,7 +18675,7 @@
         <v>1</v>
       </c>
       <c r="AA214">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="215" spans="1:27">
@@ -18722,7 +18758,7 @@
         <v>1</v>
       </c>
       <c r="AA215">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="216" spans="1:27">
@@ -18805,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="AA216">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="217" spans="1:27">
@@ -18888,7 +18924,7 @@
         <v>1</v>
       </c>
       <c r="AA217">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="218" spans="1:27">
@@ -18971,7 +19007,7 @@
         <v>1</v>
       </c>
       <c r="AA218">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="219" spans="1:27">
@@ -19054,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="AA219">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="220" spans="1:27">
@@ -19137,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AA220">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="221" spans="1:27">
@@ -19220,7 +19256,1003 @@
         <v>1</v>
       </c>
       <c r="AA221">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
+      <c r="A222" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>1</v>
+      </c>
+      <c r="AA222">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
+      <c r="A223" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>1</v>
+      </c>
+      <c r="AA223">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
+      <c r="A224" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>1</v>
+      </c>
+      <c r="AA224">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>1</v>
+      </c>
+      <c r="AA225">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>1</v>
+      </c>
+      <c r="AA226">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>1</v>
+      </c>
+      <c r="AA227">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>1</v>
+      </c>
+      <c r="AA228">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>1</v>
+      </c>
+      <c r="AA229">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
+      <c r="A230" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>1</v>
+      </c>
+      <c r="AA230">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
+      <c r="A231" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>1</v>
+      </c>
+      <c r="AA231">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
+      <c r="A232" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>1</v>
+      </c>
+      <c r="AA232">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
+      <c r="A233" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>1</v>
+      </c>
+      <c r="AA233">
+        <v>0.1666666666666667</v>
       </c>
     </row>
   </sheetData>
